--- a/강의정리/시험/5번 시험(데이터입출력구현)/제정규화 예제.xlsx
+++ b/강의정리/시험/5번 시험(데이터입출력구현)/제정규화 예제.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="8070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제1정규화(1NF)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="145">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -545,6 +545,45 @@
   </si>
   <si>
     <t>한명의 사원이 여러부서에 동시에 소속 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스구현시험 (서술형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가한 풀이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n : m 관계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞는 풀이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : n 관계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜래키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키를 설정하는 순간 기본키는 오직 하나 이므로 n : m 관계가 될수없다</t>
+  </si>
+  <si>
+    <t>(나는 틀림)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n : 1 관계라고 해야 정답 부서번호에 기본키를 설정했으므로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1374,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S32"/>
+  <dimension ref="B1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1688,169 +1727,169 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
+      <c r="G27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G30">
-        <v>1</v>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
       </c>
       <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
         <v>68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G31">
-        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>69</v>
       </c>
       <c r="I31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G32">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G44">
         <v>3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H44" t="s">
         <v>70</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I44" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1866,7 +1905,7 @@
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2333,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I29"/>
+  <dimension ref="B1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2344,6 +2383,11 @@
     <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>103</v>
@@ -2464,157 +2508,42 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2106</v>
+        <v>136</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2106</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="13">
-        <v>2</v>
-      </c>
-      <c r="H14" s="13">
-        <v>2</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="13">
-        <v>3426</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="13">
-        <v>3</v>
-      </c>
-      <c r="H15" s="13">
-        <v>3</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="13">
-        <v>3011</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="13">
-        <v>2</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="13">
-        <v>3011</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>1</v>
@@ -2625,13 +2554,19 @@
       <c r="F19" s="13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
+      <c r="H19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="13">
         <v>2106</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>109</v>
@@ -2642,13 +2577,19 @@
       <c r="F20" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="13">
         <v>2106</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>109</v>
@@ -2659,13 +2600,19 @@
       <c r="F21" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
+      <c r="H21" s="13">
+        <v>2</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="13">
         <v>3426</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>110</v>
@@ -2676,13 +2623,19 @@
       <c r="F22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="H22" s="13">
+        <v>3</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="13">
         <v>3011</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>111</v>
@@ -2693,13 +2646,16 @@
       <c r="F23" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
+      <c r="H23" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="13">
         <v>3011</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>111</v>
@@ -2711,22 +2667,262 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="13">
+        <v>2106</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
+        <v>2106</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="13">
+        <v>3426</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="13">
+        <v>3011</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="13">
+        <v>3011</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="13" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E35" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="13" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="13" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="13">
+        <v>2106</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="13">
+        <v>2106</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3426</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="13">
+        <v>2106</v>
+      </c>
+      <c r="H47" s="13">
+        <v>2</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="13">
+        <v>3011</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="13">
+        <v>3426</v>
+      </c>
+      <c r="H48" s="13">
+        <v>3</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="13">
+        <v>3011</v>
+      </c>
+      <c r="H49" s="13">
+        <v>2</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G50" s="13">
+        <v>3011</v>
+      </c>
+      <c r="H50" s="13">
+        <v>3</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E53" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
